--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.046244231705513</v>
+        <v>1.09130478098523</v>
       </c>
       <c r="D2">
-        <v>0.295598879980782</v>
+        <v>0.286946905619855</v>
       </c>
       <c r="E2">
         <v>1.131728787441642</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.9959592946179802</v>
+        <v>0.9748811766525802</v>
       </c>
       <c r="D3">
-        <v>0.319413434558627</v>
+        <v>0.3402175517961528</v>
       </c>
       <c r="E3">
         <v>1.131728787441642</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.7469777399514899</v>
+        <v>0.7499397595051275</v>
       </c>
       <c r="D4">
-        <v>0.4551815860981132</v>
+        <v>0.4612363096054186</v>
       </c>
       <c r="E4">
         <v>1.131728787441642</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1.143760909053829</v>
+        <v>1.178708291310626</v>
       </c>
       <c r="D5">
-        <v>0.2528858467446375</v>
+        <v>0.2511061732134916</v>
       </c>
       <c r="E5">
         <v>1.131728787441642</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.1609660871278421</v>
+        <v>-0.1630315300858034</v>
       </c>
       <c r="D6">
-        <v>0.8721394756764127</v>
+        <v>0.87198191602162</v>
       </c>
       <c r="E6">
         <v>1.074095662882802</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.4036886424182164</v>
+        <v>-0.547231061311768</v>
       </c>
       <c r="D7">
-        <v>0.6864930990189979</v>
+        <v>0.5897287380262639</v>
       </c>
       <c r="E7">
         <v>1.074095662882802</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.01532151979900646</v>
+        <v>0.02062246748067501</v>
       </c>
       <c r="D8">
-        <v>0.9877774945095736</v>
+        <v>0.9837327163943699</v>
       </c>
       <c r="E8">
         <v>1.074095662882802</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.2388095295038837</v>
+        <v>-0.2913965006036819</v>
       </c>
       <c r="D9">
-        <v>0.8112824246307304</v>
+        <v>0.7734778652850445</v>
       </c>
       <c r="E9">
         <v>1.082516295667571</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.1847030515509479</v>
+        <v>0.1562756312331871</v>
       </c>
       <c r="D10">
-        <v>0.8534842590576273</v>
+        <v>0.877240947033801</v>
       </c>
       <c r="E10">
         <v>1.082516295667571</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.4282587676647815</v>
+        <v>0.4611379972359414</v>
       </c>
       <c r="D11">
-        <v>0.6685176640996762</v>
+        <v>0.6492261743659635</v>
       </c>
       <c r="E11">
         <v>1.09448481992113</v>
